--- a/Data_WeekNos.xlsx
+++ b/Data_WeekNos.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Inventory" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Forecast" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Incoming" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="InvCalc" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,27 +23,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t xml:space="preserve">Product</t>
   </si>
   <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inventory</t>
   </si>
   <si>
     <t xml:space="preserve">Carrot Nantes</t>
   </si>
   <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carrot Imperator</t>
   </si>
   <si>
+    <t xml:space="preserve">Birmingham</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carrot Chantenay</t>
   </si>
   <si>
+    <t xml:space="preserve">Leeds </t>
+  </si>
+  <si>
     <t xml:space="preserve">Carrot Danvers</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrot Ball </t>
+    <t xml:space="preserve">Bristol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrot Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield</t>
   </si>
   <si>
     <t xml:space="preserve">Aug-21</t>
@@ -70,6 +89,24 @@
   </si>
   <si>
     <t xml:space="preserve">Oct-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ending Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weeks of Supply</t>
   </si>
 </sst>
 </file>
@@ -145,7 +182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -156,6 +193,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -179,16 +220,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,50 +239,67 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(100,200)</f>
-        <v>131</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1000,2000)</f>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <f aca="false">RANDBETWEEN(100,200)</f>
-        <v>174</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(400,500)</f>
+        <v>454</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <f aca="false">RANDBETWEEN(100,200)</f>
-        <v>198</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(400,500)</f>
+        <v>402</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">RANDBETWEEN(100,200)</f>
-        <v>114</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(400,500)</f>
+        <v>493</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <f aca="false">RANDBETWEEN(100,200)</f>
-        <v>165</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -260,10 +318,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -272,123 +330,123 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>55</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>51</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
       <c r="J2" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="F3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>52</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>53</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>57</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>59</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
@@ -396,125 +454,105 @@
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>54</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
-      </c>
       <c r="G4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>58</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="D5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>56</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>59</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>55</v>
-      </c>
       <c r="J5" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -535,7 +573,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,37 +582,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -582,7 +620,7 @@
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -602,7 +640,7 @@
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -615,7 +653,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -631,7 +669,7 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -639,7 +677,7 @@
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -647,20 +685,20 @@
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -668,36 +706,36 @@
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>56</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
         <v>59</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>50</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -705,7 +743,7 @@
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -713,11 +751,11 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -738,43 +776,983 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">Inventory!C2</f>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">Forecast!B2</f>
+        <v>58</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">Forecast!C2</f>
+        <v>51</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">Forecast!D2</f>
+        <v>59</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">Forecast!E2</f>
+        <v>60</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">Forecast!F2</f>
+        <v>51</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">Forecast!G2</f>
+        <v>55</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">Forecast!H2</f>
+        <v>52</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">Forecast!I2</f>
+        <v>50</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">Forecast!J2</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">Incoming!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">Incoming!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">Incoming!D2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">Incoming!E2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">Incoming!F2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">Incoming!G2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">Incoming!H2</f>
+        <v>59</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">Incoming!I2</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">Incoming!J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">C2-C3+C4</f>
+        <v>1023</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">C5+D4-D3</f>
+        <v>972</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">D5+E4-E3</f>
+        <v>913</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">E5+F4-F3</f>
+        <v>853</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">F5+G4-G3</f>
+        <v>802</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">G5+H4-H3</f>
+        <v>747</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">H5+I4-I3</f>
+        <v>754</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">I5+J4-J3</f>
+        <v>704</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">J5+K4-K3</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">ROUND(C5/AVERAGE(D3:G3),0)</f>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">ROUND(D5/AVERAGE(E3:H3),0)</f>
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">ROUND(E5/AVERAGE(F3:I3),0)</f>
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">ROUND(F5/AVERAGE(G3:J3),0)</f>
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">ROUND(G5/AVERAGE(H3:K3),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">ROUND(H5/AVERAGE(I3:L3),0)</f>
+        <v>14</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">ROUND(I5/AVERAGE(J3:M3),0)</f>
+        <v>14</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">ROUND(J5/AVERAGE(K3:N3),0)</f>
+        <v>12</v>
+      </c>
+      <c r="K6" s="0" t="e">
+        <f aca="false">ROUND(K5/AVERAGE(L3:O3),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">Inventory!C3</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">Forecast!B3</f>
+        <v>55</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">Forecast!C3</f>
+        <v>51</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">Forecast!D3</f>
+        <v>59</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">Forecast!E3</f>
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">Forecast!F3</f>
+        <v>58</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">Forecast!G3</f>
+        <v>52</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">Forecast!H3</f>
+        <v>53</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">Forecast!I3</f>
+        <v>50</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">Forecast!J3</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">Incoming!B3</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">Incoming!C3</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">Incoming!D3</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">Incoming!E3</f>
+        <v>60</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">Incoming!F3</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">Incoming!G3</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">Incoming!H3</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">Incoming!I3</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">Incoming!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">C7-C8+C9</f>
+        <v>399</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">C10+D9-D8</f>
+        <v>348</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">D10+E9-E8</f>
+        <v>289</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">E10+F9-F8</f>
+        <v>299</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">F10+G9-G8</f>
+        <v>241</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">G10+H9-H8</f>
+        <v>189</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">H10+I9-I8</f>
+        <v>136</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">I10+J9-J8</f>
+        <v>86</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">J10+K9-K8</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">ROUND(C10/AVERAGE(D8:G8),0)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">ROUND(D10/AVERAGE(E8:H8),0)</f>
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+      <c r="E11" s="0" t="n">
+        <f aca="false">ROUND(E10/AVERAGE(F8:I8),0)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">ROUND(F10/AVERAGE(G8:J8),0)</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">ROUND(G10/AVERAGE(H8:K8),0)</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">ROUND(H10/AVERAGE(I8:L8),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">ROUND(I10/AVERAGE(J8:M8),0)</f>
+        <v>3</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">ROUND(J10/AVERAGE(K8:N8),0)</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="e">
+        <f aca="false">ROUND(K10/AVERAGE(L8:O8),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">Inventory!C4</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">Forecast!B4</f>
+        <v>60</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">Forecast!C4</f>
+        <v>51</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">Forecast!D4</f>
+        <v>51</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">Forecast!E4</f>
+        <v>58</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">Forecast!F4</f>
+        <v>54</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">Forecast!G4</f>
+        <v>58</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">Forecast!H4</f>
+        <v>60</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">Forecast!I4</f>
+        <v>57</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">Forecast!J4</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">Incoming!B4</f>
         <v>59</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
+      <c r="D14" s="0" t="n">
+        <f aca="false">Incoming!C4</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">Incoming!D4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">Incoming!E4</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">Incoming!F4</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">Incoming!G4</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">Incoming!H4</f>
+        <v>56</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">Incoming!I4</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">Incoming!J4</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">C12-C13+C14</f>
+        <v>401</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">C15+D14-D13</f>
+        <v>350</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">D15+E14-E13</f>
+        <v>299</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">E15+F14-F13</f>
+        <v>241</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">F15+G14-G13</f>
+        <v>187</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">G15+H14-H13</f>
+        <v>129</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">H15+I14-I13</f>
+        <v>125</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">I15+J14-J13</f>
+        <v>68</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">J15+K14-K13</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">ROUND(C15/AVERAGE(D13:G13),0)</f>
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">ROUND(D15/AVERAGE(E13:H13),0)</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">ROUND(E15/AVERAGE(F13:I13),0)</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">ROUND(F15/AVERAGE(G13:J13),0)</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">ROUND(G15/AVERAGE(H13:K13),0)</f>
+        <v>3</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">ROUND(H15/AVERAGE(I13:L13),0)</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">ROUND(I15/AVERAGE(J13:M13),0)</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">ROUND(J15/AVERAGE(K13:N13),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="e">
+        <f aca="false">ROUND(K15/AVERAGE(L13:O13),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">Inventory!C5</f>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">Forecast!B5</f>
+        <v>59</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">Forecast!C5</f>
         <v>58</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>53</v>
+      <c r="E18" s="0" t="n">
+        <f aca="false">Forecast!D5</f>
+        <v>51</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">Forecast!E5</f>
+        <v>60</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">Forecast!F5</f>
+        <v>55</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">Forecast!G5</f>
+        <v>58</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">Forecast!H5</f>
+        <v>54</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">Forecast!I5</f>
+        <v>56</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">Forecast!J5</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">Incoming!B5</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">Incoming!C5</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">Incoming!D5</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">Incoming!E5</f>
+        <v>59</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">Incoming!F5</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">Incoming!G5</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">Incoming!H5</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">Incoming!I5</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">Incoming!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">C17-C18+C19</f>
+        <v>434</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">C20+D19-D18</f>
+        <v>376</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">D20+E19-E18</f>
+        <v>325</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">E20+F19-F18</f>
+        <v>324</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">F20+G19-G18</f>
+        <v>269</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">G20+H19-H18</f>
+        <v>211</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">H20+I19-I18</f>
+        <v>157</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">I20+J19-J18</f>
+        <v>101</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">J20+K19-K18</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">ROUND(C20/AVERAGE(D18:G18),0)</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">ROUND(D20/AVERAGE(E18:H18),0)</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">ROUND(E20/AVERAGE(F18:I18),0)</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">ROUND(F20/AVERAGE(G18:J18),0)</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">ROUND(G20/AVERAGE(H18:K18),0)</f>
+        <v>5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">ROUND(H20/AVERAGE(I18:L18),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">ROUND(I20/AVERAGE(J18:M18),0)</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">ROUND(J20/AVERAGE(K18:N18),0)</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="e">
+        <f aca="false">ROUND(K20/AVERAGE(L18:O18),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">Inventory!C6</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">Forecast!B6</f>
+        <v>50</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">Forecast!C6</f>
+        <v>60</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">Forecast!D6</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">Forecast!E6</f>
+        <v>20</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">Forecast!F6</f>
+        <v>30</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">Forecast!G6</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">Forecast!H6</f>
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">Forecast!I6</f>
+        <v>10</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">Forecast!J6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">Incoming!B6</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">Incoming!C6</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">Incoming!D6</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">Incoming!E6</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">Incoming!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">Incoming!G6</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">Incoming!H6</f>
+        <v>25</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">Incoming!I6</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">Incoming!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">C22-C23+C24</f>
+        <v>350</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">C25+D24-D23</f>
+        <v>290</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">D25+E24-E23</f>
+        <v>280</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">E25+F24-F23</f>
+        <v>260</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">F25+G24-G23</f>
+        <v>230</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">G25+H24-H23</f>
+        <v>220</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">H25+I24-I23</f>
+        <v>235</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">I25+J24-J23</f>
+        <v>225</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">J25+K24-K23</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">ROUND(C25/AVERAGE(D23:G23),0)</f>
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">ROUND(D25/AVERAGE(E23:H23),0)</f>
+        <v>17</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">ROUND(E25/AVERAGE(F23:I23),0)</f>
+        <v>16</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">ROUND(F25/AVERAGE(G23:J23),0)</f>
+        <v>17</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">ROUND(G25/AVERAGE(H23:K23),0)</f>
+        <v>23</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">ROUND(H25/AVERAGE(I23:L23),0)</f>
+        <v>22</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">ROUND(I25/AVERAGE(J23:M23),0)</f>
+        <v>24</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">ROUND(J25/AVERAGE(K23:N23),0)</f>
+        <v>23</v>
+      </c>
+      <c r="K26" s="0" t="e">
+        <f aca="false">ROUND(K25/AVERAGE(L23:O23),0)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Data_WeekNos.xlsx
+++ b/Data_WeekNos.xlsx
@@ -49,13 +49,13 @@
     <t xml:space="preserve">Carrot Chantenay</t>
   </si>
   <si>
-    <t xml:space="preserve">Leeds </t>
+    <t xml:space="preserve">Leeds</t>
   </si>
   <si>
     <t xml:space="preserve">Carrot Danvers</t>
   </si>
   <si>
-    <t xml:space="preserve">Bristol </t>
+    <t xml:space="preserve">Bristol</t>
   </si>
   <si>
     <t xml:space="preserve">Carrot Ball</t>
@@ -195,7 +195,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,7 +223,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,7 +252,7 @@
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">RANDBETWEEN(1000,2000)</f>
-        <v>1081</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,7 +264,7 @@
       </c>
       <c r="C3" s="1" t="n">
         <f aca="false">RANDBETWEEN(400,500)</f>
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,7 +276,7 @@
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false">RANDBETWEEN(400,500)</f>
-        <v>402</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,7 +288,7 @@
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false">RANDBETWEEN(400,500)</f>
-        <v>493</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,35 +364,35 @@
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="G2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>59</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>51</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>55</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>50</v>
       </c>
       <c r="J2" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
@@ -405,39 +405,39 @@
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>55</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>51</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>59</v>
-      </c>
       <c r="E3" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>58</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>52</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>53</v>
-      </c>
       <c r="I3" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,39 +446,39 @@
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>60</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="G4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>51</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
       <c r="I4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,39 +487,39 @@
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
         <v>58</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="F5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(50,60)</f>
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>51</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>60</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>55</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>54</v>
-      </c>
       <c r="I5" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
         <v>56</v>
       </c>
       <c r="J5" s="1" t="n">
         <f aca="false">RANDBETWEEN(50,60)</f>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,11 +636,11 @@
       </c>
       <c r="G2" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -657,11 +657,11 @@
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -669,11 +669,11 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -706,7 +706,7 @@
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -722,7 +722,7 @@
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -730,7 +730,7 @@
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +751,7 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
@@ -767,11 +767,11 @@
       </c>
       <c r="I5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="n">
         <f aca="false">IF(RANDBETWEEN(0,4)=0,RANDBETWEEN(50,60),0)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,21 +830,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -879,174 +879,174 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">Inventory!C2</f>
-        <v>1081</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">Forecast!B2</f>
-        <v>58</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <f aca="false">Forecast!C2</f>
-        <v>51</v>
-      </c>
-      <c r="E3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <f aca="false">Forecast!D2</f>
-        <v>59</v>
-      </c>
-      <c r="F3" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <f aca="false">Forecast!E2</f>
         <v>60</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">Forecast!F2</f>
-        <v>51</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <f aca="false">Forecast!G2</f>
-        <v>55</v>
-      </c>
-      <c r="I3" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <f aca="false">Forecast!H2</f>
-        <v>52</v>
-      </c>
-      <c r="J3" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <f aca="false">Forecast!I2</f>
-        <v>50</v>
-      </c>
-      <c r="K3" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <f aca="false">Forecast!J2</f>
         <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">Incoming!B2</f>
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">Incoming!C2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">Incoming!D2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">Incoming!E2</f>
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <f aca="false">Incoming!F2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false">Incoming!G2</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <f aca="false">Incoming!H2</f>
-        <v>59</v>
-      </c>
-      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <f aca="false">Incoming!I2</f>
         <v>0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">Incoming!J2</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">C2-C3+C4</f>
-        <v>1023</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <f aca="false">C5+D4-D3</f>
-        <v>972</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v>1610</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <f aca="false">D5+E4-E3</f>
-        <v>913</v>
-      </c>
-      <c r="F5" s="0" t="n">
+        <v>1557</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <f aca="false">E5+F4-F3</f>
-        <v>853</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>1497</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <f aca="false">F5+G4-G3</f>
-        <v>802</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v>1439</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <f aca="false">G5+H4-H3</f>
-        <v>747</v>
-      </c>
-      <c r="I5" s="0" t="n">
+        <v>1445</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <f aca="false">H5+I4-I3</f>
-        <v>754</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v>1391</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <f aca="false">I5+J4-J3</f>
-        <v>704</v>
-      </c>
-      <c r="K5" s="0" t="n">
+        <v>1332</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <f aca="false">J5+K4-K3</f>
-        <v>646</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">ROUND(C5/AVERAGE(D3:G3),0)</f>
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <f aca="false">ROUND(D5/AVERAGE(E3:H3),0)</f>
-        <v>17</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <f aca="false">ROUND(E5/AVERAGE(F3:I3),0)</f>
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <f aca="false">ROUND(F5/AVERAGE(G3:J3),0)</f>
-        <v>16</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <f aca="false">ROUND(G5/AVERAGE(H3:K3),0)</f>
-        <v>15</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <f aca="false">ROUND(H5/AVERAGE(I3:L3),0)</f>
-        <v>14</v>
-      </c>
-      <c r="I6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <f aca="false">ROUND(I5/AVERAGE(J3:M3),0)</f>
-        <v>14</v>
-      </c>
-      <c r="J6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <f aca="false">ROUND(J5/AVERAGE(K3:N3),0)</f>
-        <v>12</v>
-      </c>
-      <c r="K6" s="0" t="e">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="e">
         <f aca="false">ROUND(K5/AVERAGE(L3:O3),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1055,174 +1055,174 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">Inventory!C3</f>
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">Forecast!B3</f>
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">Forecast!C3</f>
         <v>55</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">Forecast!C3</f>
+      <c r="E8" s="1" t="n">
+        <f aca="false">Forecast!D3</f>
         <v>51</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">Forecast!D3</f>
-        <v>59</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">Forecast!E3</f>
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <f aca="false">Forecast!F3</f>
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">Forecast!G3</f>
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">Forecast!H3</f>
+        <v>58</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <f aca="false">Forecast!I3</f>
+        <v>54</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <f aca="false">Forecast!J3</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <f aca="false">Incoming!B3</f>
         <v>50</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">Forecast!F3</f>
-        <v>58</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">Forecast!G3</f>
-        <v>52</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">Forecast!H3</f>
-        <v>53</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">Forecast!I3</f>
-        <v>50</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">Forecast!J3</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">Incoming!B3</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">Incoming!C3</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <f aca="false">Incoming!D3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">Incoming!E3</f>
-        <v>60</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <f aca="false">Incoming!F3</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <f aca="false">Incoming!G3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <f aca="false">Incoming!H3</f>
         <v>0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <f aca="false">Incoming!I3</f>
         <v>0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">Incoming!J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">C7-C8+C9</f>
-        <v>399</v>
-      </c>
-      <c r="D10" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <f aca="false">C10+D9-D8</f>
-        <v>348</v>
-      </c>
-      <c r="E10" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <f aca="false">D10+E9-E8</f>
-        <v>289</v>
-      </c>
-      <c r="F10" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <f aca="false">E10+F9-F8</f>
-        <v>299</v>
-      </c>
-      <c r="G10" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <f aca="false">F10+G9-G8</f>
-        <v>241</v>
-      </c>
-      <c r="H10" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <f aca="false">G10+H9-H8</f>
-        <v>189</v>
-      </c>
-      <c r="I10" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <f aca="false">H10+I9-I8</f>
-        <v>136</v>
-      </c>
-      <c r="J10" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <f aca="false">I10+J9-J8</f>
-        <v>86</v>
-      </c>
-      <c r="K10" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <f aca="false">J10+K9-K8</f>
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">ROUND(C10/AVERAGE(D8:G8),0)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">ROUND(D10/AVERAGE(E8:H8),0)</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">ROUND(E10/AVERAGE(F8:I8),0)</f>
         <v>7</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">ROUND(D10/AVERAGE(E8:H8),0)</f>
-        <v>6</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">ROUND(E10/AVERAGE(F8:I8),0)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">ROUND(F10/AVERAGE(G8:J8),0)</f>
         <v>6</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">ROUND(G10/AVERAGE(H8:K8),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">ROUND(H10/AVERAGE(I8:L8),0)</f>
         <v>5</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">ROUND(H10/AVERAGE(I8:L8),0)</f>
+      <c r="I11" s="1" t="n">
+        <f aca="false">ROUND(I10/AVERAGE(J8:M8),0)</f>
         <v>4</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">ROUND(I10/AVERAGE(J8:M8),0)</f>
+      <c r="J11" s="1" t="n">
+        <f aca="false">ROUND(J10/AVERAGE(K8:N8),0)</f>
         <v>3</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">ROUND(J10/AVERAGE(K8:N8),0)</f>
-        <v>2</v>
-      </c>
-      <c r="K11" s="0" t="e">
+      <c r="K11" s="1" t="e">
         <f aca="false">ROUND(K10/AVERAGE(L8:O8),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1231,174 +1231,174 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">Inventory!C4</f>
-        <v>402</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">Forecast!B4</f>
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">Forecast!C4</f>
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">Forecast!D4</f>
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">Forecast!E4</f>
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <f aca="false">Forecast!F4</f>
         <v>60</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">Forecast!C4</f>
+      <c r="H13" s="1" t="n">
+        <f aca="false">Forecast!G4</f>
+        <v>55</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">Forecast!H4</f>
         <v>51</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">Forecast!D4</f>
-        <v>51</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">Forecast!E4</f>
-        <v>58</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">Forecast!F4</f>
-        <v>54</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <f aca="false">Forecast!G4</f>
-        <v>58</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <f aca="false">Forecast!H4</f>
-        <v>60</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <f aca="false">Forecast!I4</f>
-        <v>57</v>
-      </c>
-      <c r="K13" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <f aca="false">Forecast!J4</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">Incoming!B4</f>
-        <v>59</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <f aca="false">Incoming!C4</f>
         <v>0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <f aca="false">Incoming!D4</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <f aca="false">Incoming!E4</f>
         <v>0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <f aca="false">Incoming!F4</f>
         <v>0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false">Incoming!G4</f>
         <v>0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <f aca="false">Incoming!H4</f>
-        <v>56</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <f aca="false">Incoming!I4</f>
         <v>0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false">Incoming!J4</f>
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">C12-C13+C14</f>
-        <v>401</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v>488</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <f aca="false">C15+D14-D13</f>
-        <v>350</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>432</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <f aca="false">D15+E14-E13</f>
-        <v>299</v>
-      </c>
-      <c r="F15" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <f aca="false">E15+F14-F13</f>
-        <v>241</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <f aca="false">F15+G14-G13</f>
-        <v>187</v>
-      </c>
-      <c r="H15" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="H15" s="1" t="n">
         <f aca="false">G15+H14-H13</f>
-        <v>129</v>
-      </c>
-      <c r="I15" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <f aca="false">H15+I14-I13</f>
-        <v>125</v>
-      </c>
-      <c r="J15" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <f aca="false">I15+J14-J13</f>
-        <v>68</v>
-      </c>
-      <c r="K15" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <f aca="false">J15+K14-K13</f>
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">ROUND(C15/AVERAGE(D13:G13),0)</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <f aca="false">ROUND(D15/AVERAGE(E13:H13),0)</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <f aca="false">ROUND(E15/AVERAGE(F13:I13),0)</f>
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">ROUND(F15/AVERAGE(G13:J13),0)</f>
         <v>7</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">ROUND(D15/AVERAGE(E13:H13),0)</f>
+      <c r="G16" s="1" t="n">
+        <f aca="false">ROUND(G15/AVERAGE(H13:K13),0)</f>
         <v>6</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">ROUND(E15/AVERAGE(F13:I13),0)</f>
+      <c r="H16" s="1" t="n">
+        <f aca="false">ROUND(H15/AVERAGE(I13:L13),0)</f>
         <v>5</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">ROUND(F15/AVERAGE(G13:J13),0)</f>
+      <c r="I16" s="1" t="n">
+        <f aca="false">ROUND(I15/AVERAGE(J13:M13),0)</f>
         <v>4</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">ROUND(G15/AVERAGE(H13:K13),0)</f>
+      <c r="J16" s="1" t="n">
+        <f aca="false">ROUND(J15/AVERAGE(K13:N13),0)</f>
         <v>3</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <f aca="false">ROUND(H15/AVERAGE(I13:L13),0)</f>
-        <v>2</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">ROUND(I15/AVERAGE(J13:M13),0)</f>
-        <v>2</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">ROUND(J15/AVERAGE(K13:N13),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="e">
+      <c r="K16" s="1" t="e">
         <f aca="false">ROUND(K15/AVERAGE(L13:O13),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1407,174 +1407,174 @@
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <f aca="false">Inventory!C5</f>
-        <v>493</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <f aca="false">Forecast!B5</f>
-        <v>59</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <f aca="false">Forecast!C5</f>
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <f aca="false">Forecast!D5</f>
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">Forecast!E5</f>
         <v>58</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">Forecast!D5</f>
+      <c r="G18" s="1" t="n">
+        <f aca="false">Forecast!F5</f>
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">Forecast!G5</f>
+        <v>56</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <f aca="false">Forecast!H5</f>
         <v>51</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">Forecast!E5</f>
-        <v>60</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">Forecast!F5</f>
-        <v>55</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <f aca="false">Forecast!G5</f>
-        <v>58</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">Forecast!H5</f>
-        <v>54</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <f aca="false">Forecast!I5</f>
         <v>56</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <f aca="false">Forecast!J5</f>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <f aca="false">Incoming!B5</f>
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <f aca="false">Incoming!C5</f>
         <v>0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <f aca="false">Incoming!D5</f>
         <v>0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <f aca="false">Incoming!E5</f>
-        <v>59</v>
-      </c>
-      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <f aca="false">Incoming!F5</f>
         <v>0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <f aca="false">Incoming!G5</f>
         <v>0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <f aca="false">Incoming!H5</f>
         <v>0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <f aca="false">Incoming!I5</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="K19" s="1" t="n">
         <f aca="false">Incoming!J5</f>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <f aca="false">C17-C18+C19</f>
-        <v>434</v>
-      </c>
-      <c r="D20" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <f aca="false">C20+D19-D18</f>
-        <v>376</v>
-      </c>
-      <c r="E20" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <f aca="false">D20+E19-E18</f>
-        <v>325</v>
-      </c>
-      <c r="F20" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <f aca="false">E20+F19-F18</f>
-        <v>324</v>
-      </c>
-      <c r="G20" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <f aca="false">F20+G19-G18</f>
-        <v>269</v>
-      </c>
-      <c r="H20" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <f aca="false">G20+H19-H18</f>
-        <v>211</v>
-      </c>
-      <c r="I20" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="I20" s="1" t="n">
         <f aca="false">H20+I19-I18</f>
-        <v>157</v>
-      </c>
-      <c r="J20" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <f aca="false">I20+J19-J18</f>
-        <v>101</v>
-      </c>
-      <c r="K20" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="K20" s="1" t="n">
         <f aca="false">J20+K19-K18</f>
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <f aca="false">ROUND(C20/AVERAGE(D18:G18),0)</f>
-        <v>8</v>
-      </c>
-      <c r="D21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <f aca="false">ROUND(D20/AVERAGE(E18:H18),0)</f>
-        <v>7</v>
-      </c>
-      <c r="E21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <f aca="false">ROUND(E20/AVERAGE(F18:I18),0)</f>
-        <v>6</v>
-      </c>
-      <c r="F21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <f aca="false">ROUND(F20/AVERAGE(G18:J18),0)</f>
-        <v>6</v>
-      </c>
-      <c r="G21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <f aca="false">ROUND(G20/AVERAGE(H18:K18),0)</f>
-        <v>5</v>
-      </c>
-      <c r="H21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <f aca="false">ROUND(H20/AVERAGE(I18:L18),0)</f>
-        <v>4</v>
-      </c>
-      <c r="I21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
         <f aca="false">ROUND(I20/AVERAGE(J18:M18),0)</f>
-        <v>3</v>
-      </c>
-      <c r="J21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <f aca="false">ROUND(J20/AVERAGE(K18:N18),0)</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="e">
         <f aca="false">ROUND(K20/AVERAGE(L18:O18),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1583,174 +1583,174 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <f aca="false">Inventory!C6</f>
         <v>400</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false">Forecast!B6</f>
         <v>50</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false">Forecast!C6</f>
         <v>60</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <f aca="false">Forecast!D6</f>
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <f aca="false">Forecast!E6</f>
         <v>20</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <f aca="false">Forecast!F6</f>
         <v>30</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <f aca="false">Forecast!G6</f>
         <v>10</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <f aca="false">Forecast!H6</f>
         <v>10</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <f aca="false">Forecast!I6</f>
         <v>10</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <f aca="false">Forecast!J6</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <f aca="false">Incoming!B6</f>
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false">Incoming!C6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <f aca="false">Incoming!D6</f>
         <v>0</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <f aca="false">Incoming!E6</f>
         <v>0</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <f aca="false">Incoming!F6</f>
         <v>0</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <f aca="false">Incoming!G6</f>
         <v>0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <f aca="false">Incoming!H6</f>
         <v>25</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <f aca="false">Incoming!I6</f>
         <v>0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <f aca="false">Incoming!J6</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <f aca="false">C22-C23+C24</f>
         <v>350</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <f aca="false">C25+D24-D23</f>
         <v>290</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <f aca="false">D25+E24-E23</f>
         <v>280</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <f aca="false">E25+F24-F23</f>
         <v>260</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <f aca="false">F25+G24-G23</f>
         <v>230</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <f aca="false">G25+H24-H23</f>
         <v>220</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <f aca="false">H25+I24-I23</f>
         <v>235</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <f aca="false">I25+J24-J23</f>
         <v>225</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <f aca="false">J25+K24-K23</f>
         <v>215</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <f aca="false">ROUND(C25/AVERAGE(D23:G23),0)</f>
         <v>12</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <f aca="false">ROUND(D25/AVERAGE(E23:H23),0)</f>
         <v>17</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <f aca="false">ROUND(E25/AVERAGE(F23:I23),0)</f>
         <v>16</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <f aca="false">ROUND(F25/AVERAGE(G23:J23),0)</f>
         <v>17</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <f aca="false">ROUND(G25/AVERAGE(H23:K23),0)</f>
         <v>23</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <f aca="false">ROUND(H25/AVERAGE(I23:L23),0)</f>
         <v>22</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <f aca="false">ROUND(I25/AVERAGE(J23:M23),0)</f>
         <v>24</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <f aca="false">ROUND(J25/AVERAGE(K23:N23),0)</f>
         <v>23</v>
       </c>
-      <c r="K26" s="0" t="e">
+      <c r="K26" s="1" t="e">
         <f aca="false">ROUND(K25/AVERAGE(L23:O23),0)</f>
         <v>#DIV/0!</v>
       </c>
